--- a/Decision_Modeling.xlsx
+++ b/Decision_Modeling.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yash/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yash/Documents/Github/EnterpriseAnalytics/Enterprise_Analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AE5C68-B69B-CF44-AB40-53F40B16C972}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA5F4C9-79FE-0C4C-B76F-E90FCF88C87B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{2E22C802-245C-0C40-9E9E-96742DB11577}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19140" xr2:uid="{2E22C802-245C-0C40-9E9E-96742DB11577}"/>
   </bookViews>
   <sheets>
-    <sheet name="Problem 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Problem 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Book 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Book 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'Problem 1'!$B$13</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'Problem 2'!$H$3,'Problem 2'!$H$4</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Book 1'!$B$13</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Book 2'!$H$3,'Book 2'!$H$4</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
@@ -43,8 +43,8 @@
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'Problem 1'!$B$14</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'Problem 2'!$H$7</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Book 1'!$B$14</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Book 2'!$H$7</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
@@ -78,7 +78,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -431,6 +433,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -447,12 +455,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -826,7 +828,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -840,7 +842,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A6" s="19"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="7" t="s">
         <v>24</v>
       </c>
@@ -1303,27 +1305,27 @@
     <row r="9" spans="1:12" ht="30" customHeight="1" thickBot="1"/>
     <row r="10" spans="1:12" ht="30" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="19">
         <f>H7</f>
         <v>799.19272678746529</v>
       </c>
@@ -1359,7 +1361,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1">
-      <c r="A12" s="22"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="15">
         <v>5</v>
       </c>
@@ -1396,7 +1398,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1">
-      <c r="A13" s="22"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="15">
         <v>10</v>
       </c>
@@ -1432,7 +1434,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1">
-      <c r="A14" s="22"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="15">
         <v>15</v>
       </c>
@@ -1468,7 +1470,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1">
-      <c r="A15" s="22"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="15">
         <v>20</v>
       </c>
@@ -1504,7 +1506,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1">
-      <c r="A16" s="22"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="15">
         <v>25</v>
       </c>
@@ -1540,7 +1542,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1">
-      <c r="A17" s="22"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="15">
         <v>30</v>
       </c>
@@ -1576,7 +1578,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
-      <c r="A18" s="22"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="15">
         <v>35</v>
       </c>
@@ -1612,7 +1614,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1">
-      <c r="A19" s="22"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="15">
         <v>40</v>
       </c>
@@ -1648,7 +1650,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1">
-      <c r="A20" s="22"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="15">
         <v>45</v>
       </c>
@@ -1684,7 +1686,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1" thickBot="1">
-      <c r="A21" s="23"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="16">
         <v>50</v>
       </c>
